--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>snyderwilliam</t>
+          <t>qjefferson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>oforbes</t>
+          <t>blankenshipjennifer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lindarodriguez</t>
+          <t>stevenhoward</t>
         </is>
       </c>
     </row>
